--- a/Testing/Risultati/benchmark_results_Levenshtein_15_output.xlsx
+++ b/Testing/Risultati/benchmark_results_Levenshtein_15_output.xlsx
@@ -7,8 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Benchmark Data" r:id="rId3" sheetId="1"/>
-    <sheet name="Memory Usage Data" r:id="rId4" sheetId="2"/>
-    <sheet name="Average Memory Usage" r:id="rId6" sheetId="3"/>
+    <sheet name="Average Memory Usage" r:id="rId6" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -1812,12 +1811,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1832,8 +1851,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1870,23 +1891,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s" s="1">
         <v>13</v>
       </c>
     </row>
@@ -1914,25 +1935,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="0">
+      <c r="C4" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s" s="2">
         <v>21</v>
       </c>
     </row>
@@ -4140,25 +4161,25 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="0">
+      <c r="A102" t="s" s="1">
         <v>227</v>
       </c>
-      <c r="B102" t="s" s="0">
+      <c r="B102" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="C102" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D102" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s" s="0">
+      <c r="C102" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s" s="1">
         <v>232</v>
       </c>
-      <c r="F102" t="s" s="0">
+      <c r="F102" t="s" s="1">
         <v>233</v>
       </c>
-      <c r="G102" t="s" s="0">
+      <c r="G102" t="s" s="1">
         <v>21</v>
       </c>
     </row>
@@ -4255,23 +4276,23 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="0">
+      <c r="A107" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="B107" s="0"/>
-      <c r="C107" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D107" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s" s="0">
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="F107" t="s" s="0">
+      <c r="F107" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="G107" t="s" s="0">
+      <c r="G107" t="s" s="2">
         <v>13</v>
       </c>
     </row>
@@ -4419,2595 +4440,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B322"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B52" t="s" s="0">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B63" t="s" s="0">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B66" t="s" s="0">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B67" t="s" s="0">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B73" t="s" s="0">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B74" t="s" s="0">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B75" t="s" s="0">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B76" t="s" s="0">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B77" t="s" s="0">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B78" t="s" s="0">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B79" t="s" s="0">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B80" t="s" s="0">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B81" t="s" s="0">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B82" t="s" s="0">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B83" t="s" s="0">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B84" t="s" s="0">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B85" t="s" s="0">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B86" t="s" s="0">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B87" t="s" s="0">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B88" t="s" s="0">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B89" t="s" s="0">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B90" t="s" s="0">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B91" t="s" s="0">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B92" t="s" s="0">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B93" t="s" s="0">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B94" t="s" s="0">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B95" t="s" s="0">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B96" t="s" s="0">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B97" t="s" s="0">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B98" t="s" s="0">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B99" t="s" s="0">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B100" t="s" s="0">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B101" t="s" s="0">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B102" t="s" s="0">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B103" t="s" s="0">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B104" t="s" s="0">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B105" t="s" s="0">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B106" t="s" s="0">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B107" t="s" s="0">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B108" t="s" s="0">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B109" t="s" s="0">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B110" t="s" s="0">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B111" t="s" s="0">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B112" t="s" s="0">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B113" t="s" s="0">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B114" t="s" s="0">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B115" t="s" s="0">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B116" t="s" s="0">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B117" t="s" s="0">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B118" t="s" s="0">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B119" t="s" s="0">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B120" t="s" s="0">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B121" t="s" s="0">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B122" t="s" s="0">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B123" t="s" s="0">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B124" t="s" s="0">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B125" t="s" s="0">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B126" t="s" s="0">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B127" t="s" s="0">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B128" t="s" s="0">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B129" t="s" s="0">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B130" t="s" s="0">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B131" t="s" s="0">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B132" t="s" s="0">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B133" t="s" s="0">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B134" t="s" s="0">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B135" t="s" s="0">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B136" t="s" s="0">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B137" t="s" s="0">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B138" t="s" s="0">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B139" t="s" s="0">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B140" t="s" s="0">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B141" t="s" s="0">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B142" t="s" s="0">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B143" t="s" s="0">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B144" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B145" t="s" s="0">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B146" t="s" s="0">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B147" t="s" s="0">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B148" t="s" s="0">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B149" t="s" s="0">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B150" t="s" s="0">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B151" t="s" s="0">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B152" t="s" s="0">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B153" t="s" s="0">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B154" t="s" s="0">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B155" t="s" s="0">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B156" t="s" s="0">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B157" t="s" s="0">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B158" t="s" s="0">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B159" t="s" s="0">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B160" t="s" s="0">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B161" t="s" s="0">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B162" t="s" s="0">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B163" t="s" s="0">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B164" t="s" s="0">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B165" t="s" s="0">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B166" t="s" s="0">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B167" t="s" s="0">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B168" t="s" s="0">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B169" t="s" s="0">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B170" t="s" s="0">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B171" t="s" s="0">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="B172" t="s" s="0">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B173" t="s" s="0">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B174" t="s" s="0">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B175" t="s" s="0">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B176" t="s" s="0">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B177" t="s" s="0">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B178" t="s" s="0">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B179" t="s" s="0">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B180" t="s" s="0">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B181" t="s" s="0">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="B182" t="s" s="0">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B183" t="s" s="0">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B184" t="s" s="0">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B185" t="s" s="0">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B186" t="s" s="0">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B187" t="s" s="0">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B188" t="s" s="0">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B189" t="s" s="0">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B190" t="s" s="0">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B191" t="s" s="0">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B192" t="s" s="0">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B193" t="s" s="0">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B194" t="s" s="0">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B195" t="s" s="0">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B196" t="s" s="0">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B197" t="s" s="0">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B198" t="s" s="0">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B199" t="s" s="0">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B200" t="s" s="0">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B201" t="s" s="0">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="0">
-        <v>289</v>
-      </c>
-      <c r="B202" t="s" s="0">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B203" t="s" s="0">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B204" t="s" s="0">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B205" t="s" s="0">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B206" t="s" s="0">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B207" t="s" s="0">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B208" t="s" s="0">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B209" t="s" s="0">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B210" t="s" s="0">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B211" t="s" s="0">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="B212" t="s" s="0">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B213" t="s" s="0">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B214" t="s" s="0">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B215" t="s" s="0">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B216" t="s" s="0">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B217" t="s" s="0">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B218" t="s" s="0">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B219" t="s" s="0">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B220" t="s" s="0">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B221" t="s" s="0">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B222" t="s" s="0">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B223" t="s" s="0">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B224" t="s" s="0">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B225" t="s" s="0">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B226" t="s" s="0">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B227" t="s" s="0">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B228" t="s" s="0">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B229" t="s" s="0">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B230" t="s" s="0">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B231" t="s" s="0">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="B232" t="s" s="0">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B233" t="s" s="0">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B234" t="s" s="0">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B235" t="s" s="0">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B236" t="s" s="0">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B237" t="s" s="0">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B238" t="s" s="0">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B239" t="s" s="0">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B240" t="s" s="0">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B241" t="s" s="0">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B242" t="s" s="0">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B243" t="s" s="0">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B244" t="s" s="0">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B245" t="s" s="0">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B246" t="s" s="0">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B247" t="s" s="0">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B248" t="s" s="0">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B249" t="s" s="0">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B250" t="s" s="0">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B251" t="s" s="0">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s" s="0">
-        <v>344</v>
-      </c>
-      <c r="B252" t="s" s="0">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B253" t="s" s="0">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B254" t="s" s="0">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B255" t="s" s="0">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B256" t="s" s="0">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B257" t="s" s="0">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B258" t="s" s="0">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B259" t="s" s="0">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B260" t="s" s="0">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B261" t="s" s="0">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B262" t="s" s="0">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B263" t="s" s="0">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B264" t="s" s="0">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B265" t="s" s="0">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B266" t="s" s="0">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B267" t="s" s="0">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B268" t="s" s="0">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B269" t="s" s="0">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B270" t="s" s="0">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B271" t="s" s="0">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s" s="0">
-        <v>366</v>
-      </c>
-      <c r="B272" t="s" s="0">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B273" t="s" s="0">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B274" t="s" s="0">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B275" t="s" s="0">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B276" t="s" s="0">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B277" t="s" s="0">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B278" t="s" s="0">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B279" t="s" s="0">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B280" t="s" s="0">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B281" t="s" s="0">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B282" t="s" s="0">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B283" t="s" s="0">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B284" t="s" s="0">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B285" t="s" s="0">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B286" t="s" s="0">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B287" t="s" s="0">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B288" t="s" s="0">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B289" t="s" s="0">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B290" t="s" s="0">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B291" t="s" s="0">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s" s="0">
-        <v>388</v>
-      </c>
-      <c r="B292" t="s" s="0">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B293" t="s" s="0">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B294" t="s" s="0">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B295" t="s" s="0">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B296" t="s" s="0">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B297" t="s" s="0">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B298" t="s" s="0">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B299" t="s" s="0">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B300" t="s" s="0">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B301" t="s" s="0">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B302" t="s" s="0">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B303" t="s" s="0">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B304" t="s" s="0">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B305" t="s" s="0">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B306" t="s" s="0">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B307" t="s" s="0">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B308" t="s" s="0">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B309" t="s" s="0">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B310" t="s" s="0">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B311" t="s" s="0">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B312" t="s" s="0">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B313" t="s" s="0">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B314" t="s" s="0">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B315" t="s" s="0">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B316" t="s" s="0">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B317" t="s" s="0">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B318" t="s" s="0">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B319" t="s" s="0">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B320" t="s" s="0">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B321" t="s" s="0">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="B322" t="s" s="0">
-        <v>592</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B17"/>
   <sheetViews>

--- a/Testing/Risultati/benchmark_results_Levenshtein_15_output.xlsx
+++ b/Testing/Risultati/benchmark_results_Levenshtein_15_output.xlsx
@@ -1866,6 +1866,10 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="57.90625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.96875"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -4446,6 +4450,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.46875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.19921875"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
